--- a/Jogos_do_Dia/2023-07-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -811,13 +811,13 @@
         <v>79</v>
       </c>
       <c r="G2">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="H2">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -835,7 +835,7 @@
         <v>2</v>
       </c>
       <c r="O2">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -918,13 +918,13 @@
         <v>80</v>
       </c>
       <c r="G3">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H3">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -939,10 +939,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="O3">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1132,13 +1132,13 @@
         <v>82</v>
       </c>
       <c r="G5">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>3.75</v>
+        <v>3.42</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1153,10 +1153,10 @@
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="O5">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -1239,13 +1239,13 @@
         <v>83</v>
       </c>
       <c r="G6">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="H6">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="I6">
-        <v>4.6</v>
+        <v>4.28</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1260,10 +1260,10 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O6">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P6">
         <v>1.36</v>
@@ -1346,13 +1346,13 @@
         <v>84</v>
       </c>
       <c r="G7">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
       <c r="H7">
-        <v>3.4</v>
+        <v>3.18</v>
       </c>
       <c r="I7">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="J7">
         <v>1.04</v>
@@ -1367,10 +1367,10 @@
         <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O7">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P7">
         <v>1.36</v>
@@ -1453,13 +1453,13 @@
         <v>85</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J8">
         <v>1.06</v>
@@ -1474,10 +1474,10 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P8">
         <v>1.44</v>
@@ -1560,10 +1560,10 @@
         <v>86</v>
       </c>
       <c r="G9">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1581,10 +1581,10 @@
         <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O9">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P9">
         <v>1.48</v>
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="G10">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H10">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="I10">
-        <v>3.75</v>
+        <v>4.12</v>
       </c>
       <c r="J10">
         <v>1.08</v>
@@ -1682,16 +1682,16 @@
         <v>5.9</v>
       </c>
       <c r="L10">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M10">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="O10">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="P10">
         <v>1.6</v>
@@ -1774,13 +1774,13 @@
         <v>88</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>2.51</v>
       </c>
       <c r="H11">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I11">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="J11">
         <v>1.05</v>
@@ -1795,10 +1795,10 @@
         <v>2.5</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="O11">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="P11">
         <v>1.53</v>
@@ -1881,13 +1881,13 @@
         <v>89</v>
       </c>
       <c r="G12">
-        <v>2.85</v>
+        <v>3.14</v>
       </c>
       <c r="H12">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="I12">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="J12">
         <v>1.1</v>
@@ -1902,10 +1902,10 @@
         <v>2.7</v>
       </c>
       <c r="N12">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="O12">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="P12">
         <v>1.51</v>
@@ -2223,10 +2223,10 @@
         <v>3.22</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O15">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P15">
         <v>1.4</v>
@@ -2318,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="L16">
         <v>1.6</v>
@@ -2348,10 +2348,10 @@
         <v>1.57</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2372,22 +2372,22 @@
         <v>2.91</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2416,13 +2416,13 @@
         <v>94</v>
       </c>
       <c r="G17">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H17">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J17">
         <v>1.1</v>
@@ -2437,10 +2437,10 @@
         <v>2.75</v>
       </c>
       <c r="N17">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2630,13 +2630,13 @@
         <v>96</v>
       </c>
       <c r="G19">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="H19">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="J19">
         <v>1.09</v>
@@ -2651,7 +2651,7 @@
         <v>2.47</v>
       </c>
       <c r="N19">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
         <v>1.5</v>
@@ -2844,13 +2844,13 @@
         <v>98</v>
       </c>
       <c r="G21">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="H21">
         <v>3.1</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J21">
         <v>1.08</v>
@@ -2859,16 +2859,16 @@
         <v>7.9</v>
       </c>
       <c r="L21">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M21">
-        <v>2.31</v>
+        <v>2.25</v>
       </c>
       <c r="N21">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="O21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P21">
         <v>1.51</v>
@@ -2954,10 +2954,10 @@
         <v>2.1</v>
       </c>
       <c r="H22">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I22">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M22">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="N22">
         <v>2.64</v>

--- a/Jogos_do_Dia/2023-07-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>League</t>
   </si>
@@ -154,6 +154,9 @@
     <t>Bolivia LFPB</t>
   </si>
   <si>
+    <t>Mexico Liga MX</t>
+  </si>
+  <si>
     <t>07:00:00</t>
   </si>
   <si>
@@ -187,6 +190,12 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
     <t>Asan Mugunghwa</t>
   </si>
   <si>
@@ -196,30 +205,30 @@
     <t>Barracas Central</t>
   </si>
   <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
     <t>Norrköping</t>
   </si>
   <si>
-    <t>IFK Göteborg</t>
+    <t>Helsingborg</t>
   </si>
   <si>
     <t>Trelleborg</t>
   </si>
   <si>
-    <t>Helsingborg</t>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
+    <t>El Geish</t>
+  </si>
+  <si>
+    <t>Ghazl El Mehalla</t>
   </si>
   <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>El Geish</t>
-  </si>
-  <si>
-    <t>El Daklyeh FC</t>
-  </si>
-  <si>
-    <t>Ghazl El Mehalla</t>
-  </si>
-  <si>
     <t>Colón</t>
   </si>
   <si>
@@ -238,12 +247,12 @@
     <t>Campinense</t>
   </si>
   <si>
+    <t>Brasiliense</t>
+  </si>
+  <si>
     <t>Confiança</t>
   </si>
   <si>
-    <t>Brasiliense</t>
-  </si>
-  <si>
     <t>Ypiranga Erechim</t>
   </si>
   <si>
@@ -253,6 +262,12 @@
     <t>Nacional Potosí</t>
   </si>
   <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
     <t>Jeonnam Dragons</t>
   </si>
   <si>
@@ -262,30 +277,30 @@
     <t>Argentinos Juniors</t>
   </si>
   <si>
+    <t>Varberg</t>
+  </si>
+  <si>
     <t>Halmstad</t>
   </si>
   <si>
-    <t>Varberg</t>
+    <t>Östersunds FK</t>
   </si>
   <si>
     <t>Utsikten</t>
   </si>
   <si>
-    <t>Östersunds FK</t>
+    <t>Ismaily SC</t>
+  </si>
+  <si>
+    <t>Aswan FC</t>
+  </si>
+  <si>
+    <t>National Bank of Egypt</t>
   </si>
   <si>
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Aswan FC</t>
-  </si>
-  <si>
-    <t>Ismaily SC</t>
-  </si>
-  <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
     <t>Belgrano</t>
   </si>
   <si>
@@ -304,12 +319,12 @@
     <t>Santa Cruz</t>
   </si>
   <si>
+    <t>Interporto</t>
+  </si>
+  <si>
     <t>Volta Redonda</t>
   </si>
   <si>
-    <t>Interporto</t>
-  </si>
-  <si>
     <t>Náutico</t>
   </si>
   <si>
@@ -317,6 +332,12 @@
   </si>
   <si>
     <t>Oriente Petrolero</t>
+  </si>
+  <si>
+    <t>Unión Santa Fe</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
   </si>
 </sst>
 </file>
@@ -678,7 +699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,25 +820,25 @@
         <v>45117</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G2">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="H2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -832,10 +853,10 @@
         <v>3.1</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O2">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -895,7 +916,7 @@
         <v>3.48</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -906,25 +927,25 @@
         <v>45117</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="H3">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I3">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -939,10 +960,10 @@
         <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -1013,16 +1034,16 @@
         <v>45117</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>3.4</v>
@@ -1120,31 +1141,31 @@
         <v>45117</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G5">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I5">
-        <v>3.42</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
         <v>1.05</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5">
         <v>1.3</v>
@@ -1153,70 +1174,70 @@
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="P5">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="U5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="W5">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="X5">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y5">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="Z5">
-        <v>1.15</v>
+        <v>1.54</v>
       </c>
       <c r="AA5">
-        <v>2.4</v>
+        <v>3.02</v>
       </c>
       <c r="AB5">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AC5">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD5">
-        <v>2.66</v>
+        <v>3.85</v>
       </c>
       <c r="AE5">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AF5">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AG5">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="AH5">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AI5">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1227,31 +1248,31 @@
         <v>45117</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>4.28</v>
+        <v>3.25</v>
       </c>
       <c r="J6">
         <v>1.05</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6">
         <v>1.3</v>
@@ -1260,70 +1281,70 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O6">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P6">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T6">
+        <v>1.26</v>
+      </c>
+      <c r="U6">
+        <v>1.25</v>
+      </c>
+      <c r="V6">
+        <v>1.9</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>1.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.25</v>
+      </c>
+      <c r="Z6">
+        <v>1.15</v>
+      </c>
+      <c r="AA6">
+        <v>2.4</v>
+      </c>
+      <c r="AB6">
+        <v>1.64</v>
+      </c>
+      <c r="AC6">
+        <v>8.5</v>
+      </c>
+      <c r="AD6">
+        <v>2.66</v>
+      </c>
+      <c r="AE6">
         <v>1.14</v>
       </c>
-      <c r="U6">
-        <v>1.22</v>
-      </c>
-      <c r="V6">
+      <c r="AF6">
+        <v>1.26</v>
+      </c>
+      <c r="AG6">
+        <v>1.49</v>
+      </c>
+      <c r="AH6">
+        <v>1.9</v>
+      </c>
+      <c r="AI6">
         <v>2.4</v>
-      </c>
-      <c r="W6">
-        <v>0.83</v>
-      </c>
-      <c r="X6">
-        <v>0.33</v>
-      </c>
-      <c r="Y6">
-        <v>1.48</v>
-      </c>
-      <c r="Z6">
-        <v>1.54</v>
-      </c>
-      <c r="AA6">
-        <v>3.02</v>
-      </c>
-      <c r="AB6">
-        <v>1.34</v>
-      </c>
-      <c r="AC6">
-        <v>10</v>
-      </c>
-      <c r="AD6">
-        <v>3.85</v>
-      </c>
-      <c r="AE6">
-        <v>1.11</v>
-      </c>
-      <c r="AF6">
-        <v>1.24</v>
-      </c>
-      <c r="AG6">
-        <v>1.43</v>
-      </c>
-      <c r="AH6">
-        <v>1.83</v>
-      </c>
-      <c r="AI6">
-        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1334,103 +1355,103 @@
         <v>45117</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="H7">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="J7">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L7">
+        <v>1.38</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>2.15</v>
+      </c>
+      <c r="O7">
+        <v>1.61</v>
+      </c>
+      <c r="P7">
+        <v>1.44</v>
+      </c>
+      <c r="Q7">
+        <v>2.63</v>
+      </c>
+      <c r="R7">
+        <v>1.91</v>
+      </c>
+      <c r="S7">
+        <v>1.91</v>
+      </c>
+      <c r="T7">
+        <v>1.42</v>
+      </c>
+      <c r="U7">
         <v>1.28</v>
       </c>
-      <c r="M7">
-        <v>3.6</v>
-      </c>
-      <c r="N7">
-        <v>1.73</v>
-      </c>
-      <c r="O7">
-        <v>1.88</v>
-      </c>
-      <c r="P7">
-        <v>1.36</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>1.7</v>
-      </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
-      <c r="T7">
-        <v>1.5</v>
-      </c>
-      <c r="U7">
-        <v>1.25</v>
-      </c>
       <c r="V7">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="X7">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y7">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Z7">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AA7">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="AB7">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AC7">
         <v>8.5</v>
       </c>
       <c r="AD7">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF7">
         <v>1.3</v>
       </c>
       <c r="AG7">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AH7">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AI7">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1441,103 +1462,103 @@
         <v>45117</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G8">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="J8">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="M8">
+        <v>3.6</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>1.91</v>
+      </c>
+      <c r="P8">
+        <v>1.36</v>
+      </c>
+      <c r="Q8">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>1.85</v>
-      </c>
-      <c r="O8">
-        <v>1.75</v>
-      </c>
-      <c r="P8">
-        <v>1.44</v>
-      </c>
-      <c r="Q8">
-        <v>2.63</v>
-      </c>
       <c r="R8">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="S8">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U8">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V8">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="W8">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="Y8">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Z8">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AA8">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="AB8">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AC8">
         <v>8.5</v>
       </c>
       <c r="AD8">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="AE8">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF8">
         <v>1.3</v>
       </c>
       <c r="AG8">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AH8">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AI8">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1548,103 +1569,103 @@
         <v>45117</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G9">
-        <v>3.69</v>
+        <v>2.79</v>
       </c>
       <c r="H9">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>2.77</v>
       </c>
       <c r="J9">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K9">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="L9">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="Q9">
-        <v>2.61</v>
+        <v>2.47</v>
       </c>
       <c r="R9">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="S9">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="T9">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="U9">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V9">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="W9">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="X9">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="Z9">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="AA9">
-        <v>3.01</v>
+        <v>2.58</v>
       </c>
       <c r="AB9">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD9">
+        <v>2.42</v>
+      </c>
+      <c r="AE9">
+        <v>1.29</v>
+      </c>
+      <c r="AF9">
+        <v>1.58</v>
+      </c>
+      <c r="AG9">
         <v>1.93</v>
       </c>
-      <c r="AE9">
-        <v>1.28</v>
-      </c>
-      <c r="AF9">
-        <v>1.59</v>
-      </c>
-      <c r="AG9">
-        <v>1.95</v>
-      </c>
       <c r="AH9">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="AI9">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1655,25 +1676,25 @@
         <v>45117</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G10">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="H10">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="I10">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="J10">
         <v>1.08</v>
@@ -1682,16 +1703,16 @@
         <v>5.9</v>
       </c>
       <c r="L10">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N10">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P10">
         <v>1.6</v>
@@ -1751,7 +1772,7 @@
         <v>2.93</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1762,103 +1783,103 @@
         <v>45117</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G11">
-        <v>2.51</v>
+        <v>2.93</v>
       </c>
       <c r="H11">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="I11">
-        <v>2.65</v>
+        <v>2.69</v>
       </c>
       <c r="J11">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K11">
-        <v>6.75</v>
+        <v>5.7</v>
       </c>
       <c r="L11">
         <v>1.4</v>
       </c>
       <c r="M11">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N11">
-        <v>2.33</v>
+        <v>2.45</v>
       </c>
       <c r="O11">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P11">
+        <v>1.51</v>
+      </c>
+      <c r="Q11">
+        <v>2.53</v>
+      </c>
+      <c r="R11">
+        <v>1.96</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.46</v>
+      </c>
+      <c r="U11">
+        <v>1.41</v>
+      </c>
+      <c r="V11">
+        <v>1.4</v>
+      </c>
+      <c r="W11">
+        <v>1.25</v>
+      </c>
+      <c r="X11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Y11">
         <v>1.53</v>
       </c>
-      <c r="Q11">
-        <v>2.47</v>
-      </c>
-      <c r="R11">
-        <v>2.16</v>
-      </c>
-      <c r="S11">
-        <v>1.66</v>
-      </c>
-      <c r="T11">
-        <v>1.39</v>
-      </c>
-      <c r="U11">
-        <v>1.4</v>
-      </c>
-      <c r="V11">
-        <v>1.43</v>
-      </c>
-      <c r="W11">
-        <v>0.88</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11">
-        <v>1.27</v>
-      </c>
       <c r="Z11">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AA11">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF11">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AG11">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="AH11">
-        <v>2.39</v>
+        <v>2.75</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1869,103 +1890,103 @@
         <v>45117</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12">
-        <v>3.14</v>
+        <v>4.02</v>
       </c>
       <c r="H12">
-        <v>2.69</v>
+        <v>3.22</v>
       </c>
       <c r="I12">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="J12">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K12">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="L12">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M12">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N12">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="O12">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="P12">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="Q12">
-        <v>2.53</v>
+        <v>2.61</v>
       </c>
       <c r="R12">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T12">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="U12">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="V12">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="W12">
         <v>1.25</v>
       </c>
       <c r="X12">
-        <v>0.5600000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="Y12">
         <v>1.53</v>
       </c>
       <c r="Z12">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="AA12">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="AB12">
-        <v>1.86</v>
+        <v>2.13</v>
       </c>
       <c r="AC12">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD12">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AE12">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AF12">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="AG12">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="AH12">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="AI12">
-        <v>3.88</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1976,16 +1997,16 @@
         <v>45117</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G13">
         <v>2.2</v>
@@ -2083,16 +2104,16 @@
         <v>45117</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G14">
         <v>1.73</v>
@@ -2167,10 +2188,10 @@
         <v>2.6</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG14">
         <v>1.47</v>
@@ -2190,25 +2211,25 @@
         <v>45117</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G15">
-        <v>2.25</v>
+        <v>2.36</v>
       </c>
       <c r="H15">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2223,10 +2244,10 @@
         <v>3.22</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O15">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="P15">
         <v>1.4</v>
@@ -2297,16 +2318,16 @@
         <v>45117</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2354,7 +2375,7 @@
         <v>1.36</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>1.75</v>
@@ -2390,10 +2411,10 @@
         <v>2.4</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2404,25 +2425,25 @@
         <v>45117</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G17">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="H17">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="J17">
         <v>1.1</v>
@@ -2511,64 +2532,64 @@
         <v>45117</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -2601,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2612,85 +2633,85 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>45117</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G19">
-        <v>2.38</v>
+        <v>1.06</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>8.91</v>
       </c>
       <c r="I19">
-        <v>3.05</v>
+        <v>13.91</v>
       </c>
       <c r="J19">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M19">
-        <v>2.47</v>
+        <v>13</v>
       </c>
       <c r="N19">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="P19">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="Q19">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="R19">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="T19">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="V19">
-        <v>1.57</v>
+        <v>7.5</v>
       </c>
       <c r="W19">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Y19">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Z19">
-        <v>1.39</v>
+        <v>0.98</v>
       </c>
       <c r="AA19">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -2708,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2719,85 +2740,85 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2">
         <v>45117</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W20">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X20">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Y20">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Z20">
-        <v>0.98</v>
+        <v>1.39</v>
       </c>
       <c r="AA20">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2815,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -2832,25 +2853,25 @@
         <v>45117</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G21">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="H21">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="I21">
-        <v>4.4</v>
+        <v>4.76</v>
       </c>
       <c r="J21">
         <v>1.08</v>
@@ -2859,16 +2880,16 @@
         <v>7.9</v>
       </c>
       <c r="L21">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M21">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N21">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="O21">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P21">
         <v>1.51</v>
@@ -2939,25 +2960,25 @@
         <v>45117</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G22">
-        <v>2.1</v>
+        <v>2.21</v>
       </c>
       <c r="H22">
-        <v>3.05</v>
+        <v>2.73</v>
       </c>
       <c r="I22">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2966,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M22">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N22">
         <v>2.64</v>
@@ -3046,25 +3067,25 @@
         <v>45117</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G23">
-        <v>1.52</v>
+        <v>1.29</v>
       </c>
       <c r="H23">
-        <v>3.7</v>
+        <v>5.85</v>
       </c>
       <c r="I23">
-        <v>5.45</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="J23">
         <v>1.02</v>
@@ -3079,10 +3100,10 @@
         <v>6.5</v>
       </c>
       <c r="N23">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="O23">
-        <v>2.13</v>
+        <v>2.87</v>
       </c>
       <c r="P23">
         <v>1.22</v>
@@ -3130,19 +3151,233 @@
         <v>3.88</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24">
+        <v>1.5</v>
+      </c>
+      <c r="H24">
+        <v>3.6</v>
+      </c>
+      <c r="I24">
+        <v>5.8</v>
+      </c>
+      <c r="J24">
+        <v>1.02</v>
+      </c>
+      <c r="K24">
+        <v>9.5</v>
+      </c>
+      <c r="L24">
+        <v>1.34</v>
+      </c>
+      <c r="M24">
+        <v>3.38</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1.73</v>
+      </c>
+      <c r="P24">
+        <v>1.4</v>
+      </c>
+      <c r="Q24">
+        <v>2.75</v>
+      </c>
+      <c r="R24">
+        <v>2.05</v>
+      </c>
+      <c r="S24">
+        <v>1.7</v>
+      </c>
+      <c r="T24">
+        <v>1.06</v>
+      </c>
+      <c r="U24">
+        <v>1.25</v>
+      </c>
+      <c r="V24">
+        <v>2.4</v>
+      </c>
+      <c r="W24">
+        <v>1.92</v>
+      </c>
+      <c r="X24">
+        <v>0.92</v>
+      </c>
+      <c r="Y24">
+        <v>1.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.1</v>
+      </c>
+      <c r="AA24">
+        <v>2.6</v>
+      </c>
+      <c r="AB24">
+        <v>1.29</v>
+      </c>
+      <c r="AC24">
+        <v>6.5</v>
+      </c>
+      <c r="AD24">
+        <v>4</v>
+      </c>
+      <c r="AE24">
+        <v>1.28</v>
+      </c>
+      <c r="AF24">
+        <v>1.56</v>
+      </c>
+      <c r="AG24">
+        <v>1.92</v>
+      </c>
+      <c r="AH24">
+        <v>2.36</v>
+      </c>
+      <c r="AI24">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25">
+        <v>2.3</v>
+      </c>
+      <c r="H25">
+        <v>3.4</v>
+      </c>
+      <c r="I25">
+        <v>3.1</v>
+      </c>
+      <c r="J25">
+        <v>1.02</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>1.22</v>
+      </c>
+      <c r="M25">
+        <v>4.2</v>
+      </c>
+      <c r="N25">
+        <v>1.7</v>
+      </c>
+      <c r="O25">
+        <v>2.1</v>
+      </c>
+      <c r="P25">
+        <v>1.33</v>
+      </c>
+      <c r="Q25">
+        <v>3.25</v>
+      </c>
+      <c r="R25">
+        <v>1.57</v>
+      </c>
+      <c r="S25">
+        <v>2.25</v>
+      </c>
+      <c r="T25">
+        <v>1.4</v>
+      </c>
+      <c r="U25">
+        <v>1.22</v>
+      </c>
+      <c r="V25">
+        <v>1.65</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>2.54</v>
+      </c>
+      <c r="Z25">
+        <v>1.66</v>
+      </c>
+      <c r="AA25">
+        <v>4.2</v>
+      </c>
+      <c r="AB25">
+        <v>1.91</v>
+      </c>
+      <c r="AC25">
+        <v>8</v>
+      </c>
+      <c r="AD25">
+        <v>2.2</v>
+      </c>
+      <c r="AE25">
+        <v>1.17</v>
+      </c>
+      <c r="AF25">
+        <v>1.35</v>
+      </c>
+      <c r="AG25">
+        <v>1.8</v>
+      </c>
+      <c r="AH25">
+        <v>2</v>
+      </c>
+      <c r="AI25">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -142,12 +142,12 @@
     <t>Uruguay Primera División</t>
   </si>
   <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
@@ -211,21 +211,21 @@
     <t>Norrköping</t>
   </si>
   <si>
+    <t>Trelleborg</t>
+  </si>
+  <si>
     <t>Helsingborg</t>
   </si>
   <si>
-    <t>Trelleborg</t>
-  </si>
-  <si>
     <t>El Daklyeh FC</t>
   </si>
   <si>
+    <t>Ghazl El Mehalla</t>
+  </si>
+  <si>
     <t>El Geish</t>
   </si>
   <si>
-    <t>Ghazl El Mehalla</t>
-  </si>
-  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
@@ -241,18 +241,18 @@
     <t>Boca Juniors</t>
   </si>
   <si>
+    <t>Campinense</t>
+  </si>
+  <si>
     <t>Vila Nova</t>
   </si>
   <si>
-    <t>Campinense</t>
+    <t>Confiança</t>
   </si>
   <si>
     <t>Brasiliense</t>
   </si>
   <si>
-    <t>Confiança</t>
-  </si>
-  <si>
     <t>Ypiranga Erechim</t>
   </si>
   <si>
@@ -283,21 +283,21 @@
     <t>Halmstad</t>
   </si>
   <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
     <t>Östersunds FK</t>
   </si>
   <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
     <t>Ismaily SC</t>
   </si>
   <si>
+    <t>National Bank of Egypt</t>
+  </si>
+  <si>
     <t>Aswan FC</t>
   </si>
   <si>
-    <t>National Bank of Egypt</t>
-  </si>
-  <si>
     <t>Pyramids FC</t>
   </si>
   <si>
@@ -313,16 +313,16 @@
     <t>Huracán</t>
   </si>
   <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
     <t>Vitória</t>
   </si>
   <si>
-    <t>Santa Cruz</t>
+    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Interporto</t>
-  </si>
-  <si>
-    <t>Volta Redonda</t>
   </si>
   <si>
     <t>Náutico</t>
@@ -832,13 +832,13 @@
         <v>84</v>
       </c>
       <c r="G2">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H2">
         <v>3.2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="J2">
         <v>1.07</v>
@@ -880,10 +880,10 @@
         <v>1.62</v>
       </c>
       <c r="W2">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="X2">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Y2">
         <v>1.31</v>
@@ -939,13 +939,13 @@
         <v>85</v>
       </c>
       <c r="G3">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="H3">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -987,10 +987,10 @@
         <v>1.8</v>
       </c>
       <c r="W3">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Y3">
         <v>1.83</v>
@@ -1153,13 +1153,13 @@
         <v>87</v>
       </c>
       <c r="G5">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="H5">
-        <v>3.25</v>
+        <v>3.96</v>
       </c>
       <c r="I5">
-        <v>4.2</v>
+        <v>10.02</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1174,10 +1174,10 @@
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O5">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="P5">
         <v>1.36</v>
@@ -1260,13 +1260,13 @@
         <v>88</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>2.84</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>5.72</v>
       </c>
       <c r="I6">
-        <v>3.25</v>
+        <v>1.72</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1281,10 +1281,10 @@
         <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O6">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="P6">
         <v>1.4</v>
@@ -1367,91 +1367,91 @@
         <v>89</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
+        <v>1.66</v>
       </c>
       <c r="H7">
+        <v>2.97</v>
+      </c>
+      <c r="I7">
+        <v>5.88</v>
+      </c>
+      <c r="J7">
+        <v>1.04</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>1.28</v>
+      </c>
+      <c r="M7">
+        <v>3.6</v>
+      </c>
+      <c r="N7">
+        <v>1.75</v>
+      </c>
+      <c r="O7">
+        <v>1.87</v>
+      </c>
+      <c r="P7">
+        <v>1.36</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2.75</v>
-      </c>
-      <c r="J7">
-        <v>1.06</v>
-      </c>
-      <c r="K7">
-        <v>8.5</v>
-      </c>
-      <c r="L7">
-        <v>1.38</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>2.15</v>
-      </c>
-      <c r="O7">
-        <v>1.61</v>
-      </c>
-      <c r="P7">
-        <v>1.44</v>
-      </c>
-      <c r="Q7">
-        <v>2.63</v>
-      </c>
       <c r="R7">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="S7">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T7">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U7">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="V7">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="W7">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="Y7">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Z7">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AA7">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="AB7">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AC7">
         <v>8.5</v>
       </c>
       <c r="AD7">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="AE7">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF7">
         <v>1.3</v>
       </c>
       <c r="AG7">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AH7">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AI7">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1474,91 +1474,91 @@
         <v>90</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>1.64</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>2.91</v>
       </c>
       <c r="I8">
-        <v>2.5</v>
+        <v>6.36</v>
       </c>
       <c r="J8">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L8">
+        <v>1.38</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1.98</v>
+      </c>
+      <c r="O8">
+        <v>1.88</v>
+      </c>
+      <c r="P8">
+        <v>1.44</v>
+      </c>
+      <c r="Q8">
+        <v>2.63</v>
+      </c>
+      <c r="R8">
+        <v>1.91</v>
+      </c>
+      <c r="S8">
+        <v>1.91</v>
+      </c>
+      <c r="T8">
+        <v>1.42</v>
+      </c>
+      <c r="U8">
         <v>1.28</v>
       </c>
-      <c r="M8">
-        <v>3.6</v>
-      </c>
-      <c r="N8">
-        <v>1.8</v>
-      </c>
-      <c r="O8">
-        <v>1.91</v>
-      </c>
-      <c r="P8">
-        <v>1.36</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>1.7</v>
-      </c>
-      <c r="S8">
-        <v>2.05</v>
-      </c>
-      <c r="T8">
-        <v>1.5</v>
-      </c>
-      <c r="U8">
-        <v>1.25</v>
-      </c>
       <c r="V8">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>0.83</v>
       </c>
       <c r="X8">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="Y8">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Z8">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AA8">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="AB8">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AC8">
         <v>8.5</v>
       </c>
       <c r="AD8">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="AE8">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AF8">
         <v>1.3</v>
       </c>
       <c r="AG8">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AH8">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AI8">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1581,13 +1581,13 @@
         <v>91</v>
       </c>
       <c r="G9">
-        <v>2.79</v>
+        <v>4.36</v>
       </c>
       <c r="H9">
-        <v>2.93</v>
+        <v>5.24</v>
       </c>
       <c r="I9">
-        <v>2.77</v>
+        <v>1.45</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -1602,7 +1602,7 @@
         <v>2.5</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -1688,91 +1688,91 @@
         <v>92</v>
       </c>
       <c r="G10">
-        <v>2.09</v>
+        <v>4.97</v>
       </c>
       <c r="H10">
-        <v>2.98</v>
+        <v>5.42</v>
       </c>
       <c r="I10">
-        <v>4.13</v>
+        <v>1.38</v>
       </c>
       <c r="J10">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K10">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="L10">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M10">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="O10">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="P10">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="Q10">
-        <v>2.25</v>
+        <v>2.53</v>
       </c>
       <c r="R10">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="S10">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="U10">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="V10">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="W10">
         <v>1.25</v>
       </c>
       <c r="X10">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y10">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Z10">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AA10">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="AB10">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="AC10">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD10">
-        <v>2.62</v>
+        <v>2.23</v>
       </c>
       <c r="AE10">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AF10">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AG10">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AH10">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AI10">
-        <v>4.1</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1795,91 +1795,91 @@
         <v>93</v>
       </c>
       <c r="G11">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="H11">
-        <v>2.88</v>
+        <v>4.74</v>
       </c>
       <c r="I11">
-        <v>2.69</v>
+        <v>1.86</v>
       </c>
       <c r="J11">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K11">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N11">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P11">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="Q11">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
       <c r="R11">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="T11">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="U11">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="V11">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="W11">
         <v>1.25</v>
       </c>
       <c r="X11">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y11">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Z11">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AA11">
-        <v>2.76</v>
+        <v>2.44</v>
       </c>
       <c r="AB11">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="AC11">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>2.23</v>
+        <v>2.62</v>
       </c>
       <c r="AE11">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AF11">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AG11">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AH11">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AI11">
-        <v>3.88</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1902,13 +1902,13 @@
         <v>94</v>
       </c>
       <c r="G12">
-        <v>4.02</v>
+        <v>5.77</v>
       </c>
       <c r="H12">
-        <v>3.22</v>
+        <v>6.04</v>
       </c>
       <c r="I12">
-        <v>2.01</v>
+        <v>1.29</v>
       </c>
       <c r="J12">
         <v>1.06</v>
@@ -1923,10 +1923,10 @@
         <v>2.75</v>
       </c>
       <c r="N12">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="O12">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="P12">
         <v>1.48</v>
@@ -2223,13 +2223,13 @@
         <v>97</v>
       </c>
       <c r="G15">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="H15">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I15">
-        <v>2.65</v>
+        <v>3.43</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2428,7 +2428,7 @@
         <v>55</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>75</v>
@@ -2437,91 +2437,91 @@
         <v>99</v>
       </c>
       <c r="G17">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="H17">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="I17">
-        <v>3.3</v>
+        <v>3.74</v>
       </c>
       <c r="J17">
         <v>1.1</v>
       </c>
       <c r="K17">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.43</v>
       </c>
       <c r="N17">
-        <v>2.25</v>
+        <v>2.51</v>
       </c>
       <c r="O17">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="P17">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q17">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="R17">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="S17">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="T17">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="U17">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="W17">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>2.02</v>
+        <v>2.34</v>
       </c>
       <c r="Z17">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AA17">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="AB17">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AH17">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2535,7 +2535,7 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -2544,96 +2544,96 @@
         <v>100</v>
       </c>
       <c r="G18">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="H18">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="I18">
-        <v>2.91</v>
+        <v>4.29</v>
       </c>
       <c r="J18">
         <v>1.1</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L18">
+        <v>1.42</v>
+      </c>
+      <c r="M18">
+        <v>2.75</v>
+      </c>
+      <c r="N18">
+        <v>2.4</v>
+      </c>
+      <c r="O18">
         <v>1.5</v>
       </c>
-      <c r="M18">
-        <v>2.4</v>
-      </c>
-      <c r="N18">
-        <v>2.47</v>
-      </c>
-      <c r="O18">
-        <v>1.48</v>
-      </c>
       <c r="P18">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="Q18">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="R18">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S18">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T18">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="U18">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="V18">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>1.63</v>
       </c>
       <c r="Y18">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="Z18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AA18">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AG18">
+        <v>1.95</v>
+      </c>
+      <c r="AH18">
         <v>2.1</v>
       </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2">
         <v>45117</v>
@@ -2651,88 +2651,88 @@
         <v>101</v>
       </c>
       <c r="G19">
-        <v>1.06</v>
+        <v>2.23</v>
       </c>
       <c r="H19">
-        <v>8.91</v>
+        <v>2.88</v>
       </c>
       <c r="I19">
-        <v>13.91</v>
+        <v>3.27</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="L19">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M19">
-        <v>13</v>
+        <v>2.47</v>
       </c>
       <c r="N19">
-        <v>1.18</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
-        <v>4.6</v>
+        <v>1.5</v>
       </c>
       <c r="P19">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="Q19">
+        <v>2.4</v>
+      </c>
+      <c r="R19">
+        <v>2.14</v>
+      </c>
+      <c r="S19">
+        <v>1.67</v>
+      </c>
+      <c r="T19">
+        <v>1.25</v>
+      </c>
+      <c r="U19">
+        <v>1.3</v>
+      </c>
+      <c r="V19">
+        <v>1.57</v>
+      </c>
+      <c r="W19">
+        <v>1.6</v>
+      </c>
+      <c r="X19">
+        <v>0.6</v>
+      </c>
+      <c r="Y19">
+        <v>1.54</v>
+      </c>
+      <c r="Z19">
+        <v>1.39</v>
+      </c>
+      <c r="AA19">
+        <v>2.93</v>
+      </c>
+      <c r="AB19">
+        <v>1.79</v>
+      </c>
+      <c r="AC19">
         <v>8.4</v>
       </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.81</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1.02</v>
-      </c>
-      <c r="V19">
-        <v>7.5</v>
-      </c>
-      <c r="W19">
-        <v>1.8</v>
-      </c>
-      <c r="X19">
-        <v>0.2</v>
-      </c>
-      <c r="Y19">
-        <v>1.62</v>
-      </c>
-      <c r="Z19">
-        <v>0.98</v>
-      </c>
-      <c r="AA19">
-        <v>2.6</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG19">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AH19">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>45117</v>
@@ -2758,67 +2758,67 @@
         <v>102</v>
       </c>
       <c r="G20">
-        <v>2.35</v>
+        <v>1.06</v>
       </c>
       <c r="H20">
-        <v>2.91</v>
+        <v>8.91</v>
       </c>
       <c r="I20">
-        <v>3.23</v>
+        <v>13.91</v>
       </c>
       <c r="J20">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.65</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M20">
-        <v>2.47</v>
+        <v>13</v>
       </c>
       <c r="N20">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="O20">
-        <v>1.5</v>
+        <v>3.85</v>
       </c>
       <c r="P20">
-        <v>1.51</v>
+        <v>1.04</v>
       </c>
       <c r="Q20">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="R20">
-        <v>2.14</v>
+        <v>3.08</v>
       </c>
       <c r="S20">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="T20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="V20">
-        <v>1.57</v>
+        <v>7.5</v>
       </c>
       <c r="W20">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X20">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Y20">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="Z20">
-        <v>1.39</v>
+        <v>0.98</v>
       </c>
       <c r="AA20">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -2865,13 +2865,13 @@
         <v>103</v>
       </c>
       <c r="G21">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="H21">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="I21">
-        <v>4.76</v>
+        <v>3.89</v>
       </c>
       <c r="J21">
         <v>1.08</v>
@@ -2928,13 +2928,13 @@
         <v>3.12</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2943,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2993,10 +2993,10 @@
         <v>2.3</v>
       </c>
       <c r="N22">
-        <v>2.64</v>
+        <v>2.77</v>
       </c>
       <c r="O22">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>105</v>
       </c>
       <c r="G23">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="H23">
-        <v>5.85</v>
+        <v>5.13</v>
       </c>
       <c r="I23">
-        <v>8.949999999999999</v>
+        <v>3.02</v>
       </c>
       <c r="J23">
         <v>1.02</v>
@@ -3100,10 +3100,10 @@
         <v>6.5</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>2.87</v>
+        <v>2.3</v>
       </c>
       <c r="P23">
         <v>1.22</v>
